--- a/A3/Book1.xlsx
+++ b/A3/Book1.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="11910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="11910" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,9 +26,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="9">
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>Block Size</t>
+  </si>
+  <si>
+    <t>Index Block</t>
+  </si>
+  <si>
+    <t>Seedling</t>
+  </si>
+  <si>
+    <t>Sapling</t>
+  </si>
+  <si>
+    <t>Tree files</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -77,10 +103,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,8 +390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:R20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,4 +1236,102 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3">
+        <v>512</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>513</v>
+      </c>
+      <c r="D3" s="3">
+        <v>131073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>512</v>
+      </c>
+      <c r="C4" s="3">
+        <v>131072</v>
+      </c>
+      <c r="D4" s="3">
+        <v>33554432</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>